--- a/配置文档/配置表模板.xlsx
+++ b/配置文档/配置表模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20235" windowHeight="8310"/>
+    <workbookView windowWidth="20160" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="1">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>该表用于模板，创建新配置表就复制这个
 数据不想填就写 #BASEVALUE</t>
@@ -83,6 +83,9 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>BOOL</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -230,6 +245,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -239,6 +257,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -266,6 +287,9 @@
     <t>PNG</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -290,21 +314,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -324,6 +348,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -1047,12 +1080,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1310,7 +1344,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1390,20 +1424,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,36 +1451,45 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1456,388 +1500,501 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>93</v>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
